--- a/biology/Botanique/Rhagodia/Rhagodia.xlsx
+++ b/biology/Botanique/Rhagodia/Rhagodia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhagodia est un genre de  petit buisson australien appartenant à la famille des Chenopodiaceae, ou des Amaranthaceae selon la classification phylogénétique. On le rencontre dans les marais salants et certaines espèces peuvent être des plantes grasses.
 On le trouve en Australie occidentale.
@@ -513,7 +525,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rhagodia acicularis
 Rhagodia baccata
